--- a/downloaded_files/EECS203_Tutorial-35301.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35301.xlsx
@@ -159,7 +159,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -706,7 +706,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.540625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS203_Tutorial-35301.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35301.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -192,6 +192,15 @@
     <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
   </x:si>
   <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240035</x:t>
   </x:si>
   <x:si>
@@ -249,6 +258,15 @@
     <x:t>Mariam Ayman Omran Abdallah</x:t>
   </x:si>
   <x:si>
+    <x:t>1220287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله وائل صادق الصاوى سليمان بدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menatallah Wael Sadek El Sawy Badr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230278</x:t>
   </x:si>
   <x:si>
@@ -274,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1359,9 +1368,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6670206829</x:v>
+        <x:v>45927.4297408565</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1384,14 +1395,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45914.4115727199</x:v>
+        <x:v>45907.6670206829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1414,16 +1425,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45914.4378818634</x:v>
+        <x:v>45914.4115727199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4185413194</x:v>
+        <x:v>45914.4378818634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.5382717593</x:v>
+        <x:v>45907.4185413194</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.5382717593</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45927.4149988773</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1696,6 +1705,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35301.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35301.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,6 +292,12 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -407,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1737,6 +1743,36 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s"/>
+      <x:c r="E32" s="3">
+        <x:v>45928.9282471065</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Tutorial-35301.xlsx
+++ b/downloaded_files/EECS203_Tutorial-35301.xlsx
@@ -216,10 +216,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220137</x:t>
